--- a/元データ.xlsx
+++ b/元データ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it01\EC_site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pix12\EC_site\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F4F2A-6E24-4AC2-BC67-78BF9A3E3989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="11745"/>
+    <workbookView xWindow="1170" yWindow="10210" windowWidth="16850" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>items</t>
     <phoneticPr fontId="1"/>
@@ -34,102 +35,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品名</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明文</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>価格</t>
-    <rPh sb="0" eb="2">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在庫</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品数</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order_detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入数</t>
-    <rPh sb="0" eb="3">
-      <t>コウニュウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account.ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order.ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>items.ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -238,18 +144,348 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>apple_img1.jpg, apple_img2.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mikan_img1.png, mikan_img2.png</t>
+    <t>mikan_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mikan_img2.png</t>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレープフルーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いちご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくらんぼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセロラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柿</t>
+    <rPh sb="0" eb="1">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桃</t>
+    <rPh sb="0" eb="1">
+      <t>モモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイナップル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <rPh sb="0" eb="1">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南アフリカ産のルビー</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県産のあまおう</t>
+    <rPh sb="0" eb="4">
+      <t>フクオカケンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瀬戸内産のレモン</t>
+    <rPh sb="0" eb="4">
+      <t>セトウチサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県産のスイカ</t>
+    <rPh sb="0" eb="4">
+      <t>クマモトケンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山形県産の佐藤錦</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマガタケンサン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サトウニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡山県産のライム</t>
+    <rPh sb="0" eb="4">
+      <t>オカヤマケンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄県石垣島産のアセロラ</t>
+    <rPh sb="0" eb="3">
+      <t>オキナワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>イシガキジマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和歌山県産の種なし柿</t>
+    <rPh sb="0" eb="5">
+      <t>ワカヤマケンサン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山形県産の白桃</t>
+    <rPh sb="0" eb="4">
+      <t>ヤマガタケンサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静岡県産のクラウンメロン</t>
+    <rPh sb="0" eb="4">
+      <t>シズオカケンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カリフォルニア産のプルーン</t>
+    <rPh sb="7" eb="8">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖縄県産のパイナップル</t>
+    <rPh sb="0" eb="4">
+      <t>オキナワケンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥取県産の王秋</t>
+    <rPh sb="0" eb="4">
+      <t>トットリケンサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mikan_img3.png</t>
+  </si>
+  <si>
+    <t>grapefruit_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ichigo_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lemon_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suika_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lime_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acerola_img1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaki_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peach_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>melon_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prune_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pineapple_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pear_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grapefruit_img2.png</t>
+  </si>
+  <si>
+    <t>ichigo_img2.png</t>
+  </si>
+  <si>
+    <t>apple_img1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple_img2.png</t>
+  </si>
+  <si>
+    <t>grape_img2.png</t>
+  </si>
+  <si>
+    <t>grapefruit_img3.png</t>
+  </si>
+  <si>
+    <t>lemon_img2.png</t>
+  </si>
+  <si>
+    <t>suika_img2.png</t>
+  </si>
+  <si>
+    <t>lime_img2.png</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orders_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchase_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orders_detail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +572,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,58 +860,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>250</v>
@@ -678,18 +924,22 @@
         <v>300</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>1980</v>
@@ -698,18 +948,22 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
@@ -718,240 +972,528 @@
         <v>3000</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <v>180</v>
+      </c>
+      <c r="F6" s="1">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="E8" s="1">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1">
+        <v>800</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1">
+        <v>88</v>
+      </c>
+      <c r="F11" s="1">
+        <v>900</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="1">
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>120</v>
+      </c>
+      <c r="F13" s="1">
+        <v>90</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1">
+        <v>700</v>
+      </c>
+      <c r="F14" s="1">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3200</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>400</v>
+      </c>
+      <c r="F18" s="1">
+        <v>150</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="1">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="1">
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="1">
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="1">
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="1">
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="1">
+      <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E37" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="1">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="1">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="E39" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D10" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
